--- a/temp_email/email_auto.xlsx
+++ b/temp_email/email_auto.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="826">
   <si>
     <r>
       <rPr>
@@ -77,112 +77,7 @@
     </r>
   </si>
   <si>
-    <t>tlachappelle@bayfieldcounty.org</t>
-  </si>
-  <si>
-    <t>info@lkdtech.com</t>
-  </si>
-  <si>
-    <t>support@robocamp.eu</t>
-  </si>
-  <si>
-    <t>tfa@brickengraver.com</t>
-  </si>
-  <si>
-    <t>sunghoon617@naver.com</t>
-  </si>
-  <si>
-    <t>thum_marak@hotmail.com</t>
-  </si>
-  <si>
-    <t>joanne.kim@innocean.com.au</t>
-  </si>
-  <si>
-    <t>whatsuptoday@free.fr</t>
-  </si>
-  <si>
-    <t>alessandro.ceva@outlook.com</t>
-  </si>
-  <si>
-    <t>kontakt@klocus24.pl</t>
-  </si>
-  <si>
-    <t>rm88@mail.ru</t>
-  </si>
-  <si>
-    <t>support@webrick.com</t>
-  </si>
-  <si>
-    <t>anubis@compupress.gr</t>
-  </si>
-  <si>
-    <t>info@tnec.org</t>
-  </si>
-  <si>
-    <t>yolanda@szesteem.com</t>
-  </si>
-  <si>
-    <t>bearhunter@maqs.net</t>
-  </si>
-  <si>
-    <t>festivalinfo@dfwi.org</t>
-  </si>
-  <si>
-    <t>infopolokwane@youngengineers.co.za</t>
-  </si>
-  <si>
-    <t>info@iknowmytoys.com</t>
-  </si>
-  <si>
-    <t>info@boostoyshop.co.uk</t>
-  </si>
-  <si>
-    <t>jl@elearn.dk</t>
-  </si>
-  <si>
-    <t>info@arslibri.lu</t>
-  </si>
-  <si>
-    <t>artecolormodellismo@gmail.com</t>
-  </si>
-  <si>
-    <t>matrixbox@qq.com</t>
-  </si>
-  <si>
-    <t>info@mblug.org</t>
-  </si>
-  <si>
-    <t>tuttogiocattoli@tiscalinet.it</t>
-  </si>
-  <si>
-    <t>sebastien@thegentlemansmustache.com</t>
-  </si>
-  <si>
-    <t>shop@lausi.at</t>
-  </si>
-  <si>
-    <t>toyretro@gmail.com</t>
-  </si>
-  <si>
-    <t>david.sheung@colt.net</t>
-  </si>
-  <si>
-    <t>facebook@bricknowlogy.com</t>
-  </si>
-  <si>
-    <t>ellil3go@gmail.com</t>
-  </si>
-  <si>
-    <t>events@brixpo.com.au</t>
-  </si>
-  <si>
-    <t>wilsonovaprerov@seznam.cz</t>
-  </si>
-  <si>
-    <t>kontakt@nonpiano-toypiano.de</t>
-  </si>
-  <si>
-    <t>dolltoy@fennimore.com</t>
+    <t>mangocutting@gmail.com</t>
   </si>
   <si>
     <t>bimbomantelo2020@gmail.com</t>
@@ -2577,6 +2472,9 @@
 Are you interested in exploring our building blocks? Below are three photos showcasing our latest and most popular sets. Each one is designed to offer a unique building experience, catered to both enthusiasts and casual builders.
 For a deeper dive into our full collection, feel free to visit our website at https://reobrix.com/. We’d love for you to take a closer look and see if there’s a fit for you or someone you know who loves building and creativity.
 Looking forward to hearing your thoughts and potentially collaborating to bring more imaginative play into the world.</t>
+  </si>
+  <si>
+    <t>matrixbox@qq.com</t>
   </si>
   <si>
     <t>Greetings,
@@ -2618,6 +2516,57 @@
 Check out our full lineup at https://reobrix.com/ and see if something resonates with you or could be the perfect gift for a creative soul you know.
 We're eager to hear back from you and explore ways to collaborate on bringing more creative fun into the world.
 </t>
+  </si>
+  <si>
+    <t>events@brixpo.com.au</t>
+  </si>
+  <si>
+    <t>wilsonovaprerov@seznam.cz</t>
+  </si>
+  <si>
+    <t>kontakt@klocus24.pl</t>
+  </si>
+  <si>
+    <t>sunghoon617@naver.com</t>
+  </si>
+  <si>
+    <t>info@iknowmytoys.com</t>
+  </si>
+  <si>
+    <t>rm88@mail.ru</t>
+  </si>
+  <si>
+    <t>jl@elearn.dk</t>
+  </si>
+  <si>
+    <t>info@arslibri.lu</t>
+  </si>
+  <si>
+    <t>whatsuptoday@free.fr</t>
+  </si>
+  <si>
+    <t>support@robocamp.eu</t>
+  </si>
+  <si>
+    <t>thum_marak@hotmail.com</t>
+  </si>
+  <si>
+    <t>artecolormodellismo@gmail.com</t>
+  </si>
+  <si>
+    <t>info@mblug.org</t>
+  </si>
+  <si>
+    <t>tuttogiocattoli@tiscalinet.it</t>
+  </si>
+  <si>
+    <t>info@boostoyshop.co.uk</t>
+  </si>
+  <si>
+    <t>sebastien@thegentlemansmustache.com</t>
+  </si>
+  <si>
+    <t>shop@lausi.at</t>
   </si>
 </sst>
 </file>
@@ -3244,7 +3193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3256,6 +3205,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3567,13 +3519,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D831"/>
+  <dimension ref="A1:D796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -3589,10 +3544,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="40.5" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
@@ -7564,184 +7522,9 @@
         <v>798</v>
       </c>
     </row>
-    <row r="797" spans="1:1">
-      <c r="A797" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1">
-      <c r="A798" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1">
-      <c r="A799" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1">
-      <c r="A800" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1">
-      <c r="A801" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1">
-      <c r="A802" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1">
-      <c r="A803" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1">
-      <c r="A804" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1">
-      <c r="A805" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1">
-      <c r="A807" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1">
-      <c r="A808" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1">
-      <c r="A809" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1">
-      <c r="A810" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1">
-      <c r="A811" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1">
-      <c r="A812" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1">
-      <c r="A814" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1">
-      <c r="A815" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1">
-      <c r="A816" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1">
-      <c r="A817" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1">
-      <c r="A818" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1">
-      <c r="A819" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1">
-      <c r="A820" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1">
-      <c r="A821" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1">
-      <c r="A822" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1">
-      <c r="A823" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1">
-      <c r="A824" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1">
-      <c r="A825" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1">
-      <c r="A826" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1">
-      <c r="A828" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1">
-      <c r="A829" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1">
-      <c r="A830" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1">
-      <c r="A831" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="tlachappelle@bayfieldcounty.org"/>
+    <hyperlink ref="A2" r:id="rId1" display="mangocutting@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7778,2774 +7561,2774 @@
     </row>
     <row r="2" ht="409.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C2" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>802</v>
       </c>
       <c r="B3" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C3" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C4" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C5" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C6" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C7" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C8" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C9" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" ht="409.5" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C10" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" ht="409.5" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C11" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C12" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C13" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" ht="409.5" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C14" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" ht="409.5" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C15" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" ht="409.5" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C16" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C17" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" ht="409.5" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>810</v>
       </c>
       <c r="B18" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C18" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" ht="409.5" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C19" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" ht="409.5" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C20" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" ht="409.5" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C21" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="B22" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C22" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" ht="409.5" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C23" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="24" ht="409.5" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="B24" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C24" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" ht="409.5" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C25" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" ht="409.5" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C26" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" ht="409.5" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>811</v>
       </c>
       <c r="B27" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C27" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C28" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C29" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" ht="409.5" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C30" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>812</v>
       </c>
       <c r="B31" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C31" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" ht="409.5" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>813</v>
       </c>
       <c r="B32" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C32" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>814</v>
       </c>
       <c r="B33" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C33" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="34" ht="409.5" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C34" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" ht="409.5" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C35" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="36" ht="409.5" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>815</v>
       </c>
       <c r="B36" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C36" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" ht="409.5" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C37" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="B38" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C38" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" ht="409.5" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C39" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" ht="409.5" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C40" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" ht="409.5" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>816</v>
       </c>
       <c r="B41" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C41" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" ht="409.5" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C42" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" ht="409.5" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>11</v>
+        <v>817</v>
       </c>
       <c r="B43" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C43" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" ht="409.5" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C44" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" ht="409.5" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C45" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" ht="409.5" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C46" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" ht="409.5" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C47" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" ht="409.5" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C48" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C49" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" ht="409.5" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C50" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" ht="409.5" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C51" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" ht="409.5" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C52" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" ht="409.5" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C53" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" ht="409.5" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C54" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="55" ht="409.5" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C55" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56" ht="409.5" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C56" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" ht="409.5" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C57" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="58" ht="409.5" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C58" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" ht="409.5" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C59" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" ht="409.5" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C60" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" ht="409.5" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="B61" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C61" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" ht="409.5" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C62" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" ht="409.5" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C63" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" ht="409.5" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C64" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65" ht="409.5" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C65" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" ht="409.5" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="B66" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C66" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="67" ht="409.5" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C67" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" ht="409.5" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C68" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" ht="409.5" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="B69" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C69" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" ht="409.5" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C70" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" ht="409.5" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C71" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" ht="409.5" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>6</v>
+        <v>818</v>
       </c>
       <c r="B72" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C72" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" ht="409.5" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C73" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="74" ht="409.5" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="B74" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C74" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="75" ht="409.5" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C75" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" ht="409.5" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C76" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="77" ht="409.5" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C77" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="78" ht="409.5" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C78" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" ht="409.5" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C79" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" ht="409.5" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C80" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="81" ht="409.5" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C81" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="82" ht="409.5" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C82" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" ht="409.5" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C83" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" ht="409.5" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="B84" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C84" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" ht="409.5" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C85" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" ht="409.5" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C86" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" ht="409.5" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C87" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" ht="409.5" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C88" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89" ht="409.5" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C89" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90" ht="409.5" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C90" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="91" ht="409.5" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="B91" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C91" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92" ht="409.5" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="B92" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C92" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="93" ht="409.5" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="B93" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C93" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94" ht="409.5" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="B94" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C94" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" ht="409.5" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C95" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="96" ht="409.5" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C96" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" ht="409.5" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C97" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98" ht="409.5" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="B98" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C98" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" ht="409.5" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C99" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100" ht="409.5" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="B100" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C100" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="101" ht="409.5" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C101" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="102" ht="409.5" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="B102" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C102" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="103" ht="409.5" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C103" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104" ht="409.5" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="B104" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C104" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="105" ht="409.5" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>9</v>
+        <v>819</v>
       </c>
       <c r="B105" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C105" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>26</v>
+        <v>820</v>
       </c>
       <c r="B106" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C106" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" ht="409.5" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="B107" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C107" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="108" ht="409.5" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C108" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="109" ht="409.5" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C109" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="110" ht="409.5" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="B110" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C110" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="111" ht="409.5" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="B111" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C111" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="112" ht="409.5" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="B112" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C112" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="113" ht="409.5" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="B113" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C113" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" ht="409.5" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C114" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="115" ht="409.5" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="B115" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C115" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="116" ht="409.5" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C116" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" ht="409.5" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="B117" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C117" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="118" ht="409.5" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="B118" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C118" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="119" ht="409.5" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="B119" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C119" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="120" ht="409.5" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C120" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="121" ht="409.5" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="B121" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C121" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="122" ht="409.5" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C122" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="123" ht="409.5" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="B123" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C123" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="124" ht="409.5" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
       <c r="B124" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C124" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="125" ht="409.5" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="B125" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C125" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="126" ht="409.5" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C126" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="127" ht="409.5" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C127" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" ht="409.5" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="B128" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C128" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" ht="409.5" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="B129" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C129" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="130" ht="409.5" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C130" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="131" ht="409.5" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="B131" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C131" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" ht="409.5" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="B132" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C132" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="133" ht="409.5" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="B133" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C133" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="134" ht="409.5" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
       <c r="B134" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C134" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="135" ht="409.5" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="B135" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C135" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="136" ht="409.5" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C136" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="137" ht="409.5" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="B137" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C137" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="138" ht="409.5" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C138" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="139" ht="409.5" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="B139" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C139" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="140" ht="409.5" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="B140" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C140" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="141" ht="409.5" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="B141" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C141" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="142" ht="409.5" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="B142" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C142" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="143" ht="409.5" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C143" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="144" ht="409.5" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="B144" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C144" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="145" ht="409.5" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
       <c r="B145" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C145" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="146" ht="409.5" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="B146" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C146" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="147" ht="409.5" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="B147" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C147" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="148" ht="409.5" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C148" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="149" ht="409.5" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="B149" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C149" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="150" ht="409.5" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="B150" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C150" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151" ht="409.5" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>28</v>
+        <v>821</v>
       </c>
       <c r="B151" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C151" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="152" ht="409.5" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
       <c r="B152" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C152" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="153" ht="409.5" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C153" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="154" ht="409.5" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B154" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C154" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="155" ht="409.5" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>29</v>
+        <v>822</v>
       </c>
       <c r="B155" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C155" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="156" ht="409.5" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
       <c r="B156" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C156" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="157" ht="409.5" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="B157" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C157" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="158" ht="409.5" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="B158" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C158" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="159" ht="409.5" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="B159" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C159" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="160" ht="409.5" spans="1:4">
       <c r="A160" s="2" t="s">
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="B160" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C160" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="161" ht="409.5" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="B161" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C161" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="162" ht="409.5" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="B162" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C162" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="163" ht="409.5" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
       <c r="B163" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C163" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" ht="409.5" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C164" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="165" ht="409.5" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>23</v>
+        <v>823</v>
       </c>
       <c r="B165" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C165" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="166" ht="409.5" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B166" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C166" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="167" ht="409.5" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="B167" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C167" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="168" ht="409.5" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="B168" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C168" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="169" ht="409.5" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>30</v>
+        <v>824</v>
       </c>
       <c r="B169" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C169" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="170" ht="409.5" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C170" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171" ht="409.5" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B171" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C171" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="172" ht="409.5" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B172" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C172" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="173" ht="409.5" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="B173" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C173" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="174" ht="409.5" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="B174" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C174" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="175" ht="409.5" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B175" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C175" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="176" ht="409.5" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B176" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C176" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="177" ht="409.5" spans="1:4">
       <c r="A177" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="B177" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C177" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="178" ht="409.5" spans="1:4">
       <c r="A178" s="2" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B178" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C178" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="179" ht="409.5" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B179" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C179" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="180" ht="409.5" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>31</v>
+        <v>825</v>
       </c>
       <c r="B180" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C180" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="181" ht="409.5" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C181" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B182" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C182" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="183" ht="409.5" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B183" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C183" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="184" ht="409.5" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="B184" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C184" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="185" ht="409.5" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B185" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C185" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="186" ht="409.5" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B186" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C186" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="187" ht="409.5" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C187" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="188" ht="409.5" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B188" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C188" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="189" ht="409.5" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C189" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="190" ht="409.5" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C190" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="191" ht="409.5" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B191" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C191" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="192" ht="409.5" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B192" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C192" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="193" ht="409.5" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B193" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C193" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B194" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C194" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="195" ht="409.5" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B195" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C195" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="196" ht="409.5" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C196" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="197" ht="409.5" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C197" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" ht="409.5" spans="1:4">
       <c r="A198" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B198" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C198" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="199" ht="409.5" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B199" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C199" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
